--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44897</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>46042.71582175926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44918</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45275</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45332.73255787037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44929.54778935185</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>45856</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45274</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45846</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45554.54538194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>45856</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>45541.46270833333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>45785</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44327</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44580.61922453704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45082</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>44958</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45918.29126157407</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45512.58193287037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45887.69434027778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44820</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>45554.55802083333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44953</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>45267</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44855.75388888889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44274.31954861111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44251.42832175926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44315.56872685185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>44557.56232638889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44557.62729166666</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44620</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44498.85872685185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44472.64002314815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44379.59642361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44585.56385416666</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>44462</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>44557.93648148148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>44588</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>44342.41119212963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>44606</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>44610.64776620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>44746</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>44557.95741898148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>44853.52287037037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>44277.75394675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>44354</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>44519.36152777778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44379.59303240741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44414</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>44594</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44602.57128472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44466.61886574074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44546.87743055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>44575</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>44627</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44480.4962962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>44378</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44557.92930555555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>44557.95087962963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44463.82530092593</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>44820</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44598.91083333334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>44578.43423611111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>44557.96420138889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>44886.65877314815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44887.7209375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44585.56642361111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>44467.4494675926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44327.98402777778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44680.95025462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44796.69704861111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44623.6662037037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44700</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44403</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44557</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>45229</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45699.36305555556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44557.62873842593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44368</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44531</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44964</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>45142.62859953703</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>45176.46850694445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>45635.43335648148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>45602.68267361111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>45021.46637731481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44531</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45307</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45142</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>44723.45247685185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>44845</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45180.59017361111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45022</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45202</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45327</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45685.45268518518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>45643.49228009259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>44326</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>45568</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>45726</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>45727.46866898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>45147</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>45674.62034722222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>45846</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>45267.37601851852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>44958</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44350.48686342593</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>45259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>44946.56618055556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>44981.74542824074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45246.40434027778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44897</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45541.45120370371</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45541.4572800926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45541.46791666667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45274.58528935185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>45804.44163194444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45728.66428240741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45751.59857638889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>44886</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>45807.5277662037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45807.55731481482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>45807.52334490741</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45810.64702546296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>45544.57798611111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>44742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>45327</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>45816.79953703703</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>45030.5625</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>45461.66430555555</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44803</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45188.38028935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45856</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>44915.39915509259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>44896.67655092593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>45896</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>45896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45553.56228009259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>45615.36962962963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>45820</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>45820</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>45820</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>45820.58746527778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>45539.44309027777</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45820.65574074074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>45701.68670138889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>45562.64423611111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>45638.3119212963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>45085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44315.57037037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45227.51521990741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>45909.5709375</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>45909.5822800926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45909.58454861111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45909.57569444444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45821.35623842593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45909.58018518519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44326</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45320.37907407407</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>45748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45827.48390046296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45428.43583333334</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45826.69407407408</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45918.30107638889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>45015.69164351852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>45918.29686342592</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>45831.79603009259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>45923.54709490741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>45922</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45194</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45194</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>45923.6546875</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>45923.65899305556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>45252</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>45443.76803240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44326</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>45835.31512731482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>45601.74481481482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>45819</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>45834.60393518519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>45489</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45686.59799768519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45834.581875</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45834.59766203703</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45834.62658564815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>45835</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44602.54034722222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44937.61728009259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>45316</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>45930</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>45422.58119212963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44627</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>44937</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>45245.60819444444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>44539</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>45935</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>45935</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>45935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>45216.91013888889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>44914.38637731481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>45638.3243287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>45562.64549768518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45674.69032407407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45581.63439814815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45939</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>45845.37525462963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45939</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45845.37958333334</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45331.48893518518</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45856</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>45337</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>45527</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44853</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>45069</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45268.90278935185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>45846.4655324074</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45667.43741898148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45082</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45562.64256944445</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>44896.69921296297</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44896.7287037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>45848.43571759259</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45203.43324074074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45848.44622685185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>45569.54984953703</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>45636.54423611111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45685.44765046296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45410</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>45243</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>45337</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>45146</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>45758.71329861111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>45267</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44896.71260416666</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>45873.655625</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44739.92146990741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44315</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44315</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>45172.9414699074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>45874.51923611111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45029</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45958.66930555556</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45405</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45728.6678587963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44958.74996527778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>45880</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>45645</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>45967.50083333333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>45967.50263888889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>45966.58768518519</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>45966.57887731482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>45966.58150462963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>45966.58539351852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>45680</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>45541.43292824074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>45541.44021990741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44466.4562962963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>45966.35921296296</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>45971.65943287037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17025,7 +17025,7 @@
         <v>45970.69688657407</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>45192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44606.62732638889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45632.57564814815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>45254.62699074074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>45147</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17424,7 +17424,7 @@
         <v>45973.29362268518</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>45184</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>45972.77200231481</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45972.77481481482</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>45972.77635416666</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>45972.77923611111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>45198</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>45975.58877314815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>45974.50208333333</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>45069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44531</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44531</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44918</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>45156.36318287037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>45751.41636574074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>45279</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>45980.4771412037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>45980</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>45980.54207175926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>45980.54856481482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>45622</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45310</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45105</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44956.88331018519</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44935.67930555555</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45733</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>46029</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>46029.44930555556</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>46029.44706018519</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>46029.43967592593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>46029.44416666667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45239</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>46030.38206018518</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>45146</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>46029.62356481481</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>46030.40472222222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>46030.45</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>45988.65027777778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>45209</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44873.32849537037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>46030.39997685186</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>46029.61525462963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>46030.44680555556</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45993</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45758.61925925926</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45758.62509259259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45408.37851851852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>45408.3866550926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>46030.52076388889</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>46029</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>46034.52943287037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>45139</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>46029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>45979.69326388889</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>45271.67439814815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>45443.76629629629</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44937</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44519.36761574074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>45243</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>45965</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>45386.34684027778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>45965</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>45638.34212962963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>44686.91196759259</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45435.57190972222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45091.87535879629</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>45278</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>45179.61063657407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>45029</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>45541.6287962963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>46041.40594907408</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44910</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>44428</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>46042.58302083334</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>46042.71452546296</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>46042.58752314815</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>46042.59202546296</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         <v>45568</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>44826</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>45141.58101851852</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>45321</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22349,7 +22349,7 @@
         <v>44368</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>45349.45274305555</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44981</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>45727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>45483.51128472222</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>45765.43305555556</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>45376.48771990741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>46009</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>46010.38516203704</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>45574</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>45607</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44557.95532407407</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44887.68564814814</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>46057.84518518519</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>45256.94847222222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>45583</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>45147</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>46058.62920138889</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>45819</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>45330.57633101852</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44539</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44977</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>45567.87409722222</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45636.53048611111</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>45273.56233796296</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44263</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>45331.81311342592</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>45530</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>45090.6815625</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>45076</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>45076</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>45076</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44593</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>45266</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>45117</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44958.88269675926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44840</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44460</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>45198</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>45538.65402777777</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>45742.57288194444</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>45742.57572916667</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24862,7 +24862,7 @@
         <v>45321.59253472222</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>45735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44531</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>45362.51869212963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44930.48471064815</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45568.67050925926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>44930.48086805556</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>44896</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         <v>44623.66270833334</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>45727</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45205</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25489,7 +25489,7 @@
         <v>45489</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25546,7 +25546,7 @@
         <v>45105</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25603,7 +25603,7 @@
         <v>45105</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         <v>45373.46407407407</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45203.44675925926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45117</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44887.68068287037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>45758.62086805556</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45727.86231481482</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>45541.43700231481</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>45541.43848379629</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>44378</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>45601</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>44467</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45622</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44958</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>44958.76020833333</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45574.720625</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45076.47388888889</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45076.47741898148</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>44796</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45117.56052083334</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45078.736875</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>45210</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26929,7 +26929,7 @@
         <v>45774.44432870371</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45538.76355324074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>45184</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>45541.43497685185</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>45541.45583333333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>45541.47113425926</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44953.42472222223</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>45138.58577546296</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>45076</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>45765.43796296296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27499,7 +27499,7 @@
         <v>45541.46586805556</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>45541.4724074074</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44236</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>45316.6327662037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>45686.50671296296</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>45686.59657407407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45525</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45321.6490625</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>44810</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44946.56505787037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44438</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44593</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>45267.36788194445</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44992</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45203.44438657408</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>45310</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>45121.35908564815</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44279.65511574074</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44489</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>45706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28758,7 +28758,7 @@
         <v>45762.55292824074</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28815,7 +28815,7 @@
         <v>45564.54063657407</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>45022</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28929,7 +28929,7 @@
         <v>45699</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28986,7 +28986,7 @@
         <v>45686.48164351852</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29043,7 +29043,7 @@
         <v>45643</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29100,7 +29100,7 @@
         <v>45797.4594212963</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45700.61596064815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44897</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>46042.71582175926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44918</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45275</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45332.73255787037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44929.54778935185</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>45856</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45274</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45846</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45554.54538194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>45856</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>45541.46270833333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>45785</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44327</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44580.61922453704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45082</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>44958</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45918.29126157407</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45512.58193287037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45887.69434027778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44820</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>45554.55802083333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44953</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>45267</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44855.75388888889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44274.31954861111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44251.42832175926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44315.56872685185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>44557.56232638889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44557.62729166666</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44620</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44498.85872685185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44472.64002314815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44379.59642361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44585.56385416666</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>44462</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>44557.93648148148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>44588</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>44342.41119212963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>44606</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>44610.64776620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>44746</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>44557.95741898148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>44853.52287037037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>44277.75394675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>44354</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>44519.36152777778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44379.59303240741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44414</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>44594</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44602.57128472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44466.61886574074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44546.87743055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>44575</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>44627</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44480.4962962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>44378</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44557.92930555555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>44557.95087962963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44463.82530092593</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>44820</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44598.91083333334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>44578.43423611111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>44557.96420138889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>44886.65877314815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44887.7209375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44585.56642361111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>44467.4494675926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44327.98402777778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44680.95025462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44796.69704861111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44623.6662037037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44700</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44403</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44557</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>45229</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45699.36305555556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44557.62873842593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44368</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44531</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44964</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>45142.62859953703</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>45176.46850694445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>45635.43335648148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>45602.68267361111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>45021.46637731481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44531</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45307</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45142</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>44723.45247685185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>44845</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45180.59017361111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45022</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45202</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45327</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45685.45268518518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>45643.49228009259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>44326</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>45568</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>45726</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44949</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>45727.46866898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>45147</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>45674.62034722222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>45846</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>45267.37601851852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>44958</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44350.48686342593</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>45259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>44946.56618055556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>44981.74542824074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45246.40434027778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44897</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45541.45120370371</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45541.4572800926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45541.46791666667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45274.58528935185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>45804.44163194444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45728.66428240741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45751.59857638889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>44886</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>45807.5277662037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45807.55731481482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>45807.52334490741</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45810.64702546296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>45544.57798611111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>44742</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>45327</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>45816.79953703703</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>45030.5625</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>45461.66430555555</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44803</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45188.38028935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45856</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>44915.39915509259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>44896.67655092593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>45896</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>45896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45553.56228009259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>45615.36962962963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>45820</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>45820</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>45820</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>45820.58746527778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>45539.44309027777</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45820.65574074074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>45701.68670138889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>45562.64423611111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>45638.3119212963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>45085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44315.57037037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45227.51521990741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>45909.5709375</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>45909.5822800926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45909.58454861111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45909.57569444444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45821.35623842593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45909.58018518519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44326</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45320.37907407407</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>45748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45827.48390046296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45428.43583333334</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45826.69407407408</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45918.30107638889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>45015.69164351852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>45918.29686342592</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>45831.79603009259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>45923.54709490741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>45922</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45194</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45194</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>45923.6546875</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>45923.65899305556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>45252</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>45443.76803240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44326</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>45835.31512731482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>45601.74481481482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>45819</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>45834.60393518519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>45489</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45686.59799768519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45834.581875</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45834.59766203703</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45834.62658564815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>45835</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44602.54034722222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44937.61728009259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>45316</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>45930</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>45422.58119212963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44627</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>44937</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>45245.60819444444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>44539</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>45935</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>45935</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>45935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>45216.91013888889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>44914.38637731481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>45638.3243287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>45562.64549768518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45674.69032407407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45581.63439814815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45939</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>45845.37525462963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45939</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45845.37958333334</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45331.48893518518</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45856</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>45337</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>45527</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44853</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>45069</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45268.90278935185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>45846.4655324074</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45667.43741898148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45082</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45562.64256944445</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>44896.69921296297</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44896.7287037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>45848.43571759259</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45203.43324074074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45848.44622685185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>45569.54984953703</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>45636.54423611111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45685.44765046296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45410</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>45243</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>45337</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>45146</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>45758.71329861111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>45267</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44896.71260416666</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>45873.655625</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44739.92146990741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44315</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44315</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>45172.9414699074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>45874.51923611111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45029</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45958.66930555556</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45405</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45728.6678587963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44958.74996527778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>45880</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>45645</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>45967.50083333333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>45967.50263888889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>45966.58768518519</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>45966.57887731482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>45966.58150462963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>45966.58539351852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>45680</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>45541.43292824074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>45541.44021990741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44466.4562962963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>45966.35921296296</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>45971.65943287037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17025,7 +17025,7 @@
         <v>45970.69688657407</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>45192</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44606.62732638889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45632.57564814815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>45254.62699074074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>45147</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17424,7 +17424,7 @@
         <v>45973.29362268518</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>45184</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>45972.77200231481</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45972.77481481482</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>45972.77635416666</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>45972.77923611111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>45198</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>45975.58877314815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>45974.50208333333</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>45069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44531</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44531</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44918</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>45156.36318287037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>45751.41636574074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>45279</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>45980.4771412037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>45980</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>45980.54207175926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>45980.54856481482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>45622</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45310</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45105</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44956.88331018519</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44935.67930555555</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45733</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>46029</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>46029.44930555556</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>46029.44706018519</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>46029.43967592593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>46029.44416666667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45239</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>46030.38206018518</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>45146</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>46029.62356481481</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>46030.40472222222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>46030.45</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>45988.65027777778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>45209</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44873.32849537037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>46030.39997685186</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>46029.61525462963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>46030.44680555556</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45993</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45758.61925925926</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45758.62509259259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45408.37851851852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>45408.3866550926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>46030.52076388889</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>46029</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>46034.52943287037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>45139</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>46029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>45979.69326388889</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>45271.67439814815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>45443.76629629629</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44937</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44519.36761574074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>45243</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>45965</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>45386.34684027778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>45965</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>45638.34212962963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>44686.91196759259</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45435.57190972222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45091.87535879629</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>45278</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>45179.61063657407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>45029</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>45541.6287962963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>46041.40594907408</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44910</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>44428</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>46042.58302083334</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>46042.71452546296</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>46042.58752314815</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>46042.59202546296</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         <v>45568</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>44826</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>45141.58101851852</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>45321</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22349,7 +22349,7 @@
         <v>44368</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>45349.45274305555</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44981</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>45727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>45483.51128472222</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>45765.43305555556</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>45376.48771990741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>46009</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>46010.38516203704</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>45574</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>45607</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44557.95532407407</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44887.68564814814</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>46057.84518518519</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>45256.94847222222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>45583</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>45147</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>46058.62920138889</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>45819</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>45330.57633101852</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44539</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44977</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>45567.87409722222</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45636.53048611111</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>45273.56233796296</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44263</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>45331.81311342592</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>45530</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>45090.6815625</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>45076</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>45076</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>45076</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44593</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>45266</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>45117</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44958.88269675926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44840</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44460</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>45198</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>45538.65402777777</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>45742.57288194444</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>45742.57572916667</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24862,7 +24862,7 @@
         <v>45321.59253472222</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>45735</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44531</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>45362.51869212963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44930.48471064815</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45568.67050925926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>44930.48086805556</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>44896</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         <v>44623.66270833334</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>45727</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45205</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25489,7 +25489,7 @@
         <v>45489</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25546,7 +25546,7 @@
         <v>45105</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25603,7 +25603,7 @@
         <v>45105</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         <v>45373.46407407407</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45203.44675925926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45117</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44887.68068287037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>45758.62086805556</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45727.86231481482</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>45541.43700231481</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>45541.43848379629</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>44378</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>45601</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>44467</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45622</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44958</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>44958.76020833333</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45574.720625</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45076.47388888889</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45076.47741898148</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>44796</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45117.56052083334</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45078.736875</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>45210</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26929,7 +26929,7 @@
         <v>45774.44432870371</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45538.76355324074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>45184</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>45541.43497685185</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>45541.45583333333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>45541.47113425926</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44953.42472222223</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>45138.58577546296</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>45076</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>45765.43796296296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27499,7 +27499,7 @@
         <v>45541.46586805556</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>45541.4724074074</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44236</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>45316.6327662037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>45686.50671296296</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>45686.59657407407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45525</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45321.6490625</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>44810</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44946.56505787037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44438</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44593</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>45267.36788194445</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44992</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45203.44438657408</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>45310</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>45121.35908564815</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44279.65511574074</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44489</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>45706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28758,7 +28758,7 @@
         <v>45762.55292824074</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28815,7 +28815,7 @@
         <v>45564.54063657407</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>45022</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28929,7 +28929,7 @@
         <v>45699</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28986,7 +28986,7 @@
         <v>45686.48164351852</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29043,7 +29043,7 @@
         <v>45643</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29100,7 +29100,7 @@
         <v>45797.4594212963</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45700.61596064815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45856</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>46042.71582175926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45275</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45332.73255787037</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44929.54778935185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45274</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>45846</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45554.54538194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45541.46270833333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45785</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45856</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44327</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44580.61922453704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44958</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>45082</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45918.29126157407</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>45512.58193287037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>45887.69434027778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>44820</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45554.55802083333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>44953</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>45267</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>44327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44855.75388888889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44274.31954861111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>44251.42832175926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44557.56232638889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44315.56872685185</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44557.62729166666</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44620</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44498.85872685185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44472.64002314815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44379.59642361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44342.41119212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44585.56385416666</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44557.93648148148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44606</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>44610.64776620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>44746</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44557.95741898148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44853.52287037037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>44277.75394675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>44354</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>44519.36152777778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44379.59303240741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44414</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44594</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44602.57128472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44466.61886574074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44546.87743055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>44575</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>44627</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>44480.4962962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>44378</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44557.92930555555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>44557.95087962963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>44463.82530092593</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44820</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>44598.91083333334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44578.43423611111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44557.96420138889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44886.65877314815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44887.7209375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44585.56642361111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>44467.4494675926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44327.98402777778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44680.95025462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44796.69704861111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>44727</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>44623.6662037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>44700</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44403</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>44557</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>45229</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44368</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>44531</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>44531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>45699.36305555556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>45142.62859953703</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>45021.46637731481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45176.46850694445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44929</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44557.62873842593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>45635.43335648148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45602.68267361111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44531</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45142</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44723.45247685185</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45307</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44845</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>45022</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>45180.59017361111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45685.45268518518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45643.49228009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44326</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>45568</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>45202</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44949</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45726</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>45727.46866898148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>45147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>45267.37601851852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>45674.62034722222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44958</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>45327</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44350.48686342593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45194</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45246.40434027778</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44946.56618055556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45541.45120370371</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45541.4572800926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45541.46791666667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44981.74542824074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>45274.58528935185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45728.66428240741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>45751.59857638889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>44886</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>45327</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45856</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>45030.5625</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>45461.66430555555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>45188.38028935185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>45553.56228009259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44915.39915509259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>44896.67655092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>45615.36962962963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>45475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>45820</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>45820</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>45820</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>45820.58746527778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>45820.65574074074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45539.44309027777</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45821.35623842593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>45638.3119212963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>45827.48390046296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>45085</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>45826.69407407408</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44315.57037037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>45227.51521990741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44326</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>45320.37907407407</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>45831.79603009259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>45428.43583333334</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>45896</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>45896</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45835.31512731482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45819</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45834.60393518519</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>45834.581875</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>45834.59766203703</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>45834.62658564815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45835</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>45701.68670138889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>45562.64423611111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>45015.69164351852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>45194</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>45194</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>45252</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>45909.5709375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>45909.5822800926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>45909.58454861111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>45909.57569444444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>45909.58018518519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>45443.76803240741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44326</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>45845.37525462963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45362</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45748</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>45601.74481481482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>45845.37958333334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>45489</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>45686.59799768519</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>45846.4655324074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45667.43741898148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45848.43571759259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>45848.44622685185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44602.54034722222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44937.61728009259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>45636.54423611111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>45316</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45918.30107638889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>45422.58119212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44627</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44937</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>45918.29686342592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>45245.60819444444</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45923.54709490741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>45922</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>45216.91013888889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>45243</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45923.6546875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>45923.65899305556</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44914.38637731481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>45638.3243287037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>45562.64549768518</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45674.69032407407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45581.63439814815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45146</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45758.71329861111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44896.71260416666</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>45873.655625</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>45331.48893518518</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45337</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44739.92146990741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>45527</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44853</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45069</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45930</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45268.90278935185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45874.51923611111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45082</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>45562.64256944445</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44896.69921296297</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44896.7287037037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45203.43324074074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45569.54984953703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45935</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45935</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>45935</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>45685.44765046296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>45410</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>45939</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>45337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>45939</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>45267</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>45856</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>44315</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>44315</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>45846</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>45172.9414699074</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>44889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45029</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>45405</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>45728.6678587963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>44958.74996527778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45680</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45541.43292824074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45541.44021990741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44466.4562962963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>45192</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>44606.62732638889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>45632.57564814815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>45254.62699074074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45147</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>45139</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45184</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45958.66930555556</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>45198</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44897</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>45069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44918</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>45156.36318287037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>45645</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>45751.41636574074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>45279</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>45967.50083333333</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>45967.50263888889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>45966.58768518519</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>45966.57887731482</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>45966.58150462963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>45966.58539351852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>45966.35921296296</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>45971.65943287037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>45970.69688657407</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>45622</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>45310</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45973.29362268518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>45972.77200231481</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45972.77481481482</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>45972.77635416666</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>45972.77923611111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>45105</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44956.88331018519</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44935.67930555555</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45975.58877314815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45974.50208333333</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45733</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44977</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45239</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45146</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45980.4771412037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45980</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45209</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44873.32849537037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>45980.54207175926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45980.54856481482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>45758.61925925926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>45758.62509259259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45408.37851851852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45408.3866550926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45139</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44459</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45271.67439814815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45443.76629629629</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>44937</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44519.36761574074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>45988.65027777778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>45243</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45993</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45386.34684027778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>45638.34212962963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>46034.52943287037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>44686.91196759259</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45435.57190972222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>45091.87535879629</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>45278</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>45979.69326388889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45179.61063657407</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45029</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45541.6287962963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45965</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>45965</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>44910</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>44428</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>46041.40594907408</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>46042.58302083334</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>45568</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>46042.71452546296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>44826</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>46042.58752314815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>46042.59202546296</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>45141.58101851852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45321</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>44368</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21136,7 +21136,7 @@
         <v>45349.45274305555</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>44981</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>45727</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>45483.51128472222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>45765.43305555556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>45376.48771990741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>45574</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>45607</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44557.95532407407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44887.68564814814</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>46009</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>46010.38516203704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>45256.94847222222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>45583</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>46057.84518518519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21991,7 +21991,7 @@
         <v>45147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22048,7 +22048,7 @@
         <v>45330.57633101852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22105,7 +22105,7 @@
         <v>46058.62920138889</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>44539</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44977</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>45567.87409722222</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>45636.53048611111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>45273.56233796296</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22447,7 +22447,7 @@
         <v>44263</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22504,7 +22504,7 @@
         <v>45331.81311342592</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>45530</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>45090.6815625</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45076</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45076</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>45076</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22846,7 +22846,7 @@
         <v>44593</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>46069.6066087963</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45266</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45819</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44958.88269675926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>44840</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>44460</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44459</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>46029.44706018519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>46029.61525462963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>46029</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>46029</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>46029.44930555556</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>46029.44416666667</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>46029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>46029.62356481481</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>46029.43967592593</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>46030.40472222222</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>46030.39997685186</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>46030.52076388889</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>46030.44680555556</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>46030.38206018518</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>45198</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>46030.45</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24353,7 +24353,7 @@
         <v>45538.65402777777</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45742.57288194444</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45742.57572916667</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>45321.59253472222</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>45735</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44531</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>45362.51869212963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>44930.48471064815</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45568.67050925926</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44930.48086805556</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44896</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44623.66270833334</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45727</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45205</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45489</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45105</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45105</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45373.46407407407</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44742</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45203.44675925926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44887.68068287037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45758.62086805556</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>45727.86231481482</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>45541.43700231481</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45541.43848379629</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>44378</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45601</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44467</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45622</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44958.76020833333</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45574.720625</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45076.47388888889</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45076.47741898148</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44796</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45117.56052083334</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45078.736875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45210</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45774.44432870371</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45538.76355324074</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45184</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45541.43497685185</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45541.45583333333</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45541.47113425926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44953.42472222223</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45138.58577546296</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45076</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45765.43796296296</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45541.46586805556</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45541.4724074074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45076</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45316.6327662037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45686.50671296296</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45686.59657407407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>45525</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>45321.6490625</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>45147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44810</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>44946.56505787037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>44438</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>44593</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45267.36788194445</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45203.44438657408</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45310</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45121.35908564815</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>44279.65511574074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>44489</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45706</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45762.55292824074</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45564.54063657407</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45022</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45699</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45686.48164351852</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45643</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45797.4594212963</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>45700.61596064815</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45804.44163194444</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45807.5277662037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>45807.55731481482</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>45807.52334490741</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29052,7 +29052,7 @@
         <v>45810.64702546296</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29109,7 +29109,7 @@
         <v>45544.57798611111</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29166,7 +29166,7 @@
         <v>45816.79953703703</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45856</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,14 +658,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 59155-2022</t>
+          <t>A 3578-2026</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44897</v>
+        <v>46042.71582175926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -693,24 +693,118 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot
+Blomkålssvamp
+Blåmossa
+Rödgul trumpetsvamp
+Stor revmossa
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1256/artfynd/A 3578-2026 artfynd.xlsx", "A 3578-2026")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1256/kartor/A 3578-2026 karta.png", "A 3578-2026")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1256/klagomål/A 3578-2026 FSC-klagomål.docx", "A 3578-2026")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1256/klagomålsmail/A 3578-2026 FSC-klagomål mail.docx", "A 3578-2026")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1256/tillsyn/A 3578-2026 tillsynsbegäran.docx", "A 3578-2026")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1256/tillsynsmail/A 3578-2026 tillsynsbegäran mail.docx", "A 3578-2026")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1256/fåglar/A 3578-2026 prioriterade fågelarter.docx", "A 3578-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 59155-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ÖSTRA GÖINGE</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="P3" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
         <v>4</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Ask
 Blek kraterlav
@@ -718,119 +812,31 @@
 Lönnlav</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1256/artfynd/A 59155-2022 artfynd.xlsx", "A 59155-2022")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1256/kartor/A 59155-2022 karta.png", "A 59155-2022")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1256/klagomål/A 59155-2022 FSC-klagomål.docx", "A 59155-2022")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1256/klagomålsmail/A 59155-2022 FSC-klagomål mail.docx", "A 59155-2022")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1256/tillsyn/A 59155-2022 tillsynsbegäran.docx", "A 59155-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1256/tillsynsmail/A 59155-2022 tillsynsbegäran mail.docx", "A 59155-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 3578-2026</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>46042.71582175926</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46075</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ÖSTRA GÖINGE</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot
-Blåmossa
-Rödgul trumpetsvamp
-Stor revmossa</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1256/artfynd/A 3578-2026 artfynd.xlsx", "A 3578-2026")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1256/kartor/A 3578-2026 karta.png", "A 3578-2026")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1256/klagomål/A 3578-2026 FSC-klagomål.docx", "A 3578-2026")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1256/klagomålsmail/A 3578-2026 FSC-klagomål mail.docx", "A 3578-2026")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1256/tillsyn/A 3578-2026 tillsynsbegäran.docx", "A 3578-2026")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1256/tillsynsmail/A 3578-2026 tillsynsbegäran mail.docx", "A 3578-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -841,7 +847,7 @@
         <v>44918</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +934,7 @@
         <v>45275</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1025,7 @@
         <v>45332.73255787037</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1112,7 @@
         <v>44327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1202,7 @@
         <v>44929.54778935185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1292,7 @@
         <v>45274</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1378,7 @@
         <v>45846</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1468,7 @@
         <v>45554.54538194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1558,7 @@
         <v>44965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1648,7 @@
         <v>45541.46270833333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1734,7 @@
         <v>45785</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1814,7 +1820,7 @@
         <v>45856</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1900,7 +1906,7 @@
         <v>44327</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1985,7 +1991,7 @@
         <v>44580.61922453704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2080,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2169,7 @@
         <v>44958</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2252,7 +2258,7 @@
         <v>45082</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2343,7 @@
         <v>45918.29126157407</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2422,7 +2428,7 @@
         <v>45512.58193287037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2507,7 +2513,7 @@
         <v>45887.69434027778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2592,7 +2598,7 @@
         <v>44820</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2677,7 +2683,7 @@
         <v>45554.55802083333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2762,7 +2768,7 @@
         <v>44953</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2847,7 +2853,7 @@
         <v>45267</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2932,7 +2938,7 @@
         <v>44327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2995,7 @@
         <v>44855.75388888889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3052,7 @@
         <v>44274.31954861111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3109,7 @@
         <v>44251.42832175926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3166,7 @@
         <v>44557.56232638889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3223,7 @@
         <v>44315.56872685185</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3280,7 @@
         <v>44557.62729166666</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3337,7 @@
         <v>44396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3394,7 @@
         <v>44620</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3451,7 @@
         <v>44498.85872685185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3502,7 +3508,7 @@
         <v>44472.64002314815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3559,7 +3565,7 @@
         <v>44379.59642361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3616,7 +3622,7 @@
         <v>44462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3673,7 +3679,7 @@
         <v>44342.41119212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3730,7 +3736,7 @@
         <v>44585.56385416666</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3787,7 +3793,7 @@
         <v>44557.93648148148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3844,7 +3850,7 @@
         <v>44588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3901,7 +3907,7 @@
         <v>44606</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3958,7 +3964,7 @@
         <v>44610.64776620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4015,7 +4021,7 @@
         <v>44746</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4072,7 +4078,7 @@
         <v>44557.95741898148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4129,7 +4135,7 @@
         <v>44853.52287037037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4186,7 +4192,7 @@
         <v>44277.75394675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4243,7 +4249,7 @@
         <v>44354</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4300,7 +4306,7 @@
         <v>44519.36152777778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4357,7 +4363,7 @@
         <v>44379.59303240741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4414,7 +4420,7 @@
         <v>44414</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4471,7 +4477,7 @@
         <v>44594</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4528,7 +4534,7 @@
         <v>44602.57128472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4585,7 +4591,7 @@
         <v>44466.61886574074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4647,7 +4653,7 @@
         <v>44546.87743055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4704,7 +4710,7 @@
         <v>44575</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4761,7 +4767,7 @@
         <v>44627</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4818,7 +4824,7 @@
         <v>44480.4962962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4875,7 +4881,7 @@
         <v>44378</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4932,7 +4938,7 @@
         <v>44557.92930555555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4989,7 +4995,7 @@
         <v>44557.95087962963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5046,7 +5052,7 @@
         <v>44463.82530092593</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5103,7 +5109,7 @@
         <v>44820</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5160,7 +5166,7 @@
         <v>44598.91083333334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5217,7 +5223,7 @@
         <v>44578.43423611111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5274,7 +5280,7 @@
         <v>44557.96420138889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5331,7 +5337,7 @@
         <v>44886.65877314815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5388,7 +5394,7 @@
         <v>44887.7209375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5445,7 +5451,7 @@
         <v>44585.56642361111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5502,7 +5508,7 @@
         <v>44467.4494675926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5559,7 +5565,7 @@
         <v>44327.98402777778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5616,7 +5622,7 @@
         <v>44680.95025462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5673,7 +5679,7 @@
         <v>44796.69704861111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5735,7 +5741,7 @@
         <v>44727</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5792,7 +5798,7 @@
         <v>44623.6662037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5849,7 +5855,7 @@
         <v>44700</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5906,7 +5912,7 @@
         <v>44403</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5963,7 +5969,7 @@
         <v>44557</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6020,7 +6026,7 @@
         <v>45229</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6077,7 +6083,7 @@
         <v>44368</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6134,7 +6140,7 @@
         <v>44531</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6191,7 +6197,7 @@
         <v>44531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6248,7 +6254,7 @@
         <v>45699.36305555556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6305,7 +6311,7 @@
         <v>45142.62859953703</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6362,7 +6368,7 @@
         <v>45021.46637731481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6419,7 +6425,7 @@
         <v>45176.46850694445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6476,7 +6482,7 @@
         <v>44964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6533,7 +6539,7 @@
         <v>44929</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6590,7 +6596,7 @@
         <v>44557.62873842593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6647,7 +6653,7 @@
         <v>45635.43335648148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6704,7 +6710,7 @@
         <v>45602.68267361111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6761,7 +6767,7 @@
         <v>44531</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6818,7 +6824,7 @@
         <v>45142</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6875,7 +6881,7 @@
         <v>44723.45247685185</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6932,7 +6938,7 @@
         <v>45307</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6989,7 +6995,7 @@
         <v>44845</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7046,7 +7052,7 @@
         <v>45022</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7103,7 +7109,7 @@
         <v>45180.59017361111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7160,7 +7166,7 @@
         <v>45685.45268518518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7217,7 +7223,7 @@
         <v>45643.49228009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7274,7 +7280,7 @@
         <v>44326</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7331,7 +7337,7 @@
         <v>45568</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7388,7 +7394,7 @@
         <v>45202</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7445,7 +7451,7 @@
         <v>44949</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7502,7 +7508,7 @@
         <v>45726</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7559,7 +7565,7 @@
         <v>45727.46866898148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7616,7 +7622,7 @@
         <v>45147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7673,7 +7679,7 @@
         <v>45267.37601851852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7730,7 +7736,7 @@
         <v>45674.62034722222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7787,7 +7793,7 @@
         <v>44958</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7844,7 +7850,7 @@
         <v>45327</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7901,7 +7907,7 @@
         <v>44350.48686342593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7963,7 +7969,7 @@
         <v>45259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8020,7 +8026,7 @@
         <v>45194</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8077,7 +8083,7 @@
         <v>45246.40434027778</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8134,7 +8140,7 @@
         <v>44946.56618055556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8191,7 +8197,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8248,7 +8254,7 @@
         <v>45541.45120370371</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8305,7 +8311,7 @@
         <v>45541.4572800926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8362,7 +8368,7 @@
         <v>45541.46791666667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8419,7 +8425,7 @@
         <v>44981.74542824074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8476,7 +8482,7 @@
         <v>45274.58528935185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8533,7 +8539,7 @@
         <v>45728.66428240741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8595,7 +8601,7 @@
         <v>45751.59857638889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8652,7 +8658,7 @@
         <v>44886</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8709,7 +8715,7 @@
         <v>45327</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8766,7 +8772,7 @@
         <v>44742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8823,7 +8829,7 @@
         <v>45856</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8880,7 +8886,7 @@
         <v>45030.5625</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8937,7 +8943,7 @@
         <v>45461.66430555555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8994,7 +9000,7 @@
         <v>44803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9051,7 +9057,7 @@
         <v>45188.38028935185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9108,7 +9114,7 @@
         <v>45553.56228009259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9165,7 +9171,7 @@
         <v>44915.39915509259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9222,7 +9228,7 @@
         <v>44896.67655092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9279,7 +9285,7 @@
         <v>45615.36962962963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9336,7 +9342,7 @@
         <v>45475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9393,7 +9399,7 @@
         <v>45820</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9450,7 +9456,7 @@
         <v>45820</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9507,7 +9513,7 @@
         <v>45820</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9564,7 +9570,7 @@
         <v>45820.58746527778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9621,7 +9627,7 @@
         <v>45820.65574074074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9678,7 +9684,7 @@
         <v>45539.44309027777</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9735,7 +9741,7 @@
         <v>45821.35623842593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9792,7 +9798,7 @@
         <v>45638.3119212963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9849,7 +9855,7 @@
         <v>45827.48390046296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9906,7 +9912,7 @@
         <v>45085</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9963,7 +9969,7 @@
         <v>45826.69407407408</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10020,7 +10026,7 @@
         <v>44315.57037037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10077,7 +10083,7 @@
         <v>45227.51521990741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10134,7 +10140,7 @@
         <v>44326</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10191,7 +10197,7 @@
         <v>45320.37907407407</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10248,7 +10254,7 @@
         <v>45831.79603009259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10305,7 +10311,7 @@
         <v>45428.43583333334</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10362,7 +10368,7 @@
         <v>45896</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10424,7 +10430,7 @@
         <v>45896</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10486,7 +10492,7 @@
         <v>45835.31512731482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10543,7 +10549,7 @@
         <v>45819</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10600,7 +10606,7 @@
         <v>45834.60393518519</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10657,7 +10663,7 @@
         <v>45834.581875</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10714,7 +10720,7 @@
         <v>45834.59766203703</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10771,7 +10777,7 @@
         <v>45834.62658564815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10828,7 +10834,7 @@
         <v>45835</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10885,7 +10891,7 @@
         <v>45701.68670138889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10942,7 +10948,7 @@
         <v>45562.64423611111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11004,7 +11010,7 @@
         <v>45015.69164351852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11061,7 +11067,7 @@
         <v>45194</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11118,7 +11124,7 @@
         <v>45194</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11175,7 +11181,7 @@
         <v>45252</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11232,7 +11238,7 @@
         <v>45909.5709375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11289,7 +11295,7 @@
         <v>45909.5822800926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11346,7 +11352,7 @@
         <v>45909.58454861111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11403,7 +11409,7 @@
         <v>45909.57569444444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11460,7 +11466,7 @@
         <v>45909.58018518519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11517,7 +11523,7 @@
         <v>45443.76803240741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11574,7 +11580,7 @@
         <v>44326</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11631,7 +11637,7 @@
         <v>45845.37525462963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11688,7 +11694,7 @@
         <v>45362</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11745,7 +11751,7 @@
         <v>45748</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11802,7 +11808,7 @@
         <v>45601.74481481482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11859,7 +11865,7 @@
         <v>45845.37958333334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11916,7 +11922,7 @@
         <v>45489</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11973,7 +11979,7 @@
         <v>45686.59799768519</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12030,7 +12036,7 @@
         <v>45846.4655324074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12087,7 +12093,7 @@
         <v>45667.43741898148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12150,7 @@
         <v>45848.43571759259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12207,7 @@
         <v>45848.44622685185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12264,7 @@
         <v>44602.54034722222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12315,7 +12321,7 @@
         <v>44937.61728009259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12372,7 +12378,7 @@
         <v>45636.54423611111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12429,7 +12435,7 @@
         <v>45316</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12497,7 @@
         <v>45918.30107638889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12554,7 @@
         <v>45422.58119212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12611,7 @@
         <v>44627</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12668,7 @@
         <v>44937</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12725,7 @@
         <v>45918.29686342592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12782,7 @@
         <v>45245.60819444444</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12833,7 +12839,7 @@
         <v>44539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12890,7 +12896,7 @@
         <v>45923.54709490741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12947,7 +12953,7 @@
         <v>45922</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13004,7 +13010,7 @@
         <v>45216.91013888889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13061,7 +13067,7 @@
         <v>45243</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13118,7 +13124,7 @@
         <v>45923.6546875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13175,7 +13181,7 @@
         <v>45923.65899305556</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13232,7 +13238,7 @@
         <v>44914.38637731481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13289,7 +13295,7 @@
         <v>45638.3243287037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13346,7 +13352,7 @@
         <v>45562.64549768518</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13408,7 +13414,7 @@
         <v>45674.69032407407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13465,7 +13471,7 @@
         <v>45581.63439814815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13527,7 +13533,7 @@
         <v>45146</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13584,7 +13590,7 @@
         <v>45758.71329861111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13641,7 +13647,7 @@
         <v>44896.71260416666</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13698,7 +13704,7 @@
         <v>45873.655625</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13755,7 +13761,7 @@
         <v>45331.48893518518</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13812,7 +13818,7 @@
         <v>45337</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13869,7 +13875,7 @@
         <v>44739.92146990741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13926,7 +13932,7 @@
         <v>45527</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13983,7 +13989,7 @@
         <v>44853</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14040,7 +14046,7 @@
         <v>45069</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14097,7 +14103,7 @@
         <v>45930</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14154,7 +14160,7 @@
         <v>45268.90278935185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14211,7 +14217,7 @@
         <v>45874.51923611111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14268,7 +14274,7 @@
         <v>45082</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14325,7 +14331,7 @@
         <v>45562.64256944445</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14393,7 @@
         <v>44896.69921296297</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14450,7 @@
         <v>44896.7287037037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14507,7 @@
         <v>45203.43324074074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14564,7 @@
         <v>45569.54984953703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14621,7 @@
         <v>45880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14672,7 +14678,7 @@
         <v>45935</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14729,7 +14735,7 @@
         <v>45935</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14786,7 +14792,7 @@
         <v>45935</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14843,7 +14849,7 @@
         <v>45685.44765046296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14900,7 +14906,7 @@
         <v>45410</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14957,7 +14963,7 @@
         <v>45939</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15014,7 +15020,7 @@
         <v>45337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15071,7 +15077,7 @@
         <v>45939</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15128,7 +15134,7 @@
         <v>45267</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15185,7 +15191,7 @@
         <v>45856</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15242,7 +15248,7 @@
         <v>44315</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15299,7 +15305,7 @@
         <v>44315</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15356,7 +15362,7 @@
         <v>45846</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15413,7 +15419,7 @@
         <v>45172.9414699074</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15470,7 +15476,7 @@
         <v>44889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15527,7 +15533,7 @@
         <v>45029</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15584,7 +15590,7 @@
         <v>45405</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15641,7 +15647,7 @@
         <v>45728.6678587963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15703,7 +15709,7 @@
         <v>44958.74996527778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15760,7 +15766,7 @@
         <v>44852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15817,7 +15823,7 @@
         <v>45680</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15874,7 +15880,7 @@
         <v>45541.43292824074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15931,7 +15937,7 @@
         <v>45541.44021990741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15988,7 +15994,7 @@
         <v>44466.4562962963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16050,7 +16056,7 @@
         <v>45192</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16107,7 +16113,7 @@
         <v>44606.62732638889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16164,7 +16170,7 @@
         <v>45632.57564814815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16221,7 +16227,7 @@
         <v>45254.62699074074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16278,7 +16284,7 @@
         <v>45147</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16335,7 +16341,7 @@
         <v>45139</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16392,7 +16398,7 @@
         <v>45184</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16449,7 +16455,7 @@
         <v>45958.66930555556</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16506,7 +16512,7 @@
         <v>45198</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16563,7 +16569,7 @@
         <v>44897</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16620,7 +16626,7 @@
         <v>45069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16677,7 +16683,7 @@
         <v>44531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16734,7 +16740,7 @@
         <v>44531</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16791,7 +16797,7 @@
         <v>44918</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16848,7 +16854,7 @@
         <v>45156.36318287037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16905,7 +16911,7 @@
         <v>45645</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16962,7 +16968,7 @@
         <v>45751.41636574074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17019,7 +17025,7 @@
         <v>45279</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17076,7 +17082,7 @@
         <v>45967.50083333333</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17138,7 +17144,7 @@
         <v>45967.50263888889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17200,7 +17206,7 @@
         <v>45966.58768518519</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17257,7 +17263,7 @@
         <v>45966.57887731482</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17314,7 +17320,7 @@
         <v>45966.58150462963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17371,7 +17377,7 @@
         <v>45966.58539351852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17428,7 +17434,7 @@
         <v>45966.35921296296</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17485,7 +17491,7 @@
         <v>45971.65943287037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17542,7 +17548,7 @@
         <v>45970.69688657407</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17599,7 +17605,7 @@
         <v>45622</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17661,7 +17667,7 @@
         <v>45310</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17718,7 +17724,7 @@
         <v>45973.29362268518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17780,7 +17786,7 @@
         <v>45972.77200231481</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17842,7 +17848,7 @@
         <v>45972.77481481482</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17904,7 +17910,7 @@
         <v>45972.77635416666</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17966,7 +17972,7 @@
         <v>45972.77923611111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18028,7 +18034,7 @@
         <v>45105</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18085,7 +18091,7 @@
         <v>44956.88331018519</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18142,7 +18148,7 @@
         <v>44935.67930555555</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18199,7 +18205,7 @@
         <v>45975.58877314815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18256,7 +18262,7 @@
         <v>45974.50208333333</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18313,7 +18319,7 @@
         <v>45733</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18370,7 +18376,7 @@
         <v>44977</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18427,7 +18433,7 @@
         <v>45239</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18490,7 @@
         <v>45146</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18541,7 +18547,7 @@
         <v>45980.4771412037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18598,7 +18604,7 @@
         <v>45980</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18655,7 +18661,7 @@
         <v>45209</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18712,7 +18718,7 @@
         <v>44873.32849537037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18769,7 +18775,7 @@
         <v>45980.54207175926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18826,7 +18832,7 @@
         <v>45980.54856481482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18883,7 +18889,7 @@
         <v>45758.61925925926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18945,7 +18951,7 @@
         <v>45758.62509259259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19007,7 +19013,7 @@
         <v>45408.37851851852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19064,7 +19070,7 @@
         <v>45408.3866550926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19121,7 +19127,7 @@
         <v>45139</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19178,7 +19184,7 @@
         <v>44459</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19235,7 +19241,7 @@
         <v>45271.67439814815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19292,7 +19298,7 @@
         <v>45443.76629629629</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19349,7 +19355,7 @@
         <v>44937</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19406,7 +19412,7 @@
         <v>44519.36761574074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19463,7 +19469,7 @@
         <v>45988.65027777778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19520,7 +19526,7 @@
         <v>44929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19577,7 +19583,7 @@
         <v>45243</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19634,7 +19640,7 @@
         <v>45993</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19691,7 +19697,7 @@
         <v>45386.34684027778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19748,7 +19754,7 @@
         <v>45638.34212962963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19825,7 +19831,7 @@
         <v>46034.52943287037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19882,7 +19888,7 @@
         <v>44686.91196759259</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19939,7 +19945,7 @@
         <v>45435.57190972222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19996,7 +20002,7 @@
         <v>45091.87535879629</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20053,7 +20059,7 @@
         <v>45278</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20110,7 +20116,7 @@
         <v>45979.69326388889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20167,7 +20173,7 @@
         <v>45179.61063657407</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20224,7 +20230,7 @@
         <v>45029</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20281,7 +20287,7 @@
         <v>45541.6287962963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20338,7 +20344,7 @@
         <v>45965</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20395,7 +20401,7 @@
         <v>45965</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20452,7 +20458,7 @@
         <v>44910</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20509,7 +20515,7 @@
         <v>44428</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20566,7 +20572,7 @@
         <v>46041.40594907408</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20623,7 +20629,7 @@
         <v>46042.58302083334</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20680,7 +20686,7 @@
         <v>45568</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20737,7 +20743,7 @@
         <v>46042.71452546296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20794,7 +20800,7 @@
         <v>44826</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20851,7 +20857,7 @@
         <v>46042.58752314815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20908,7 +20914,7 @@
         <v>46042.59202546296</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20965,7 +20971,7 @@
         <v>45141.58101851852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21022,7 +21028,7 @@
         <v>45321</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21079,7 +21085,7 @@
         <v>44368</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21136,7 +21142,7 @@
         <v>45349.45274305555</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21193,7 +21199,7 @@
         <v>44981</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21256,7 @@
         <v>45727</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21313,7 @@
         <v>45483.51128472222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21370,7 @@
         <v>45765.43305555556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21427,7 @@
         <v>45376.48771990741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21484,7 @@
         <v>45574</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21541,7 @@
         <v>45607</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21598,7 @@
         <v>44557.95532407407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21655,7 @@
         <v>44887.68564814814</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21712,7 @@
         <v>46009</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21769,7 @@
         <v>46010.38516203704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21826,7 @@
         <v>45256.94847222222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21877,7 +21883,7 @@
         <v>45583</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21934,7 +21940,7 @@
         <v>46057.84518518519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21991,7 +21997,7 @@
         <v>45147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22048,7 +22054,7 @@
         <v>45330.57633101852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22105,7 +22111,7 @@
         <v>46058.62920138889</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22162,7 +22168,7 @@
         <v>44539</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22219,7 +22225,7 @@
         <v>44977</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22276,7 +22282,7 @@
         <v>45567.87409722222</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22333,7 +22339,7 @@
         <v>45636.53048611111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22390,7 +22396,7 @@
         <v>45273.56233796296</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22447,7 +22453,7 @@
         <v>44263</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22504,7 +22510,7 @@
         <v>45331.81311342592</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22561,7 +22567,7 @@
         <v>45530</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22618,7 +22624,7 @@
         <v>45090.6815625</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22675,7 +22681,7 @@
         <v>45076</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22732,7 +22738,7 @@
         <v>45076</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22789,7 +22795,7 @@
         <v>45076</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22846,7 +22852,7 @@
         <v>44593</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22903,7 +22909,7 @@
         <v>46069.6066087963</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22960,7 +22966,7 @@
         <v>45266</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23017,7 +23023,7 @@
         <v>45819</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23074,7 +23080,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23136,7 +23142,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23193,7 +23199,7 @@
         <v>44958.88269675926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23250,7 +23256,7 @@
         <v>44840</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23307,7 +23313,7 @@
         <v>44460</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23364,7 +23370,7 @@
         <v>44459</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23421,7 +23427,7 @@
         <v>46029.44706018519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23478,7 +23484,7 @@
         <v>46029.61525462963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23535,7 +23541,7 @@
         <v>46029</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23592,7 +23598,7 @@
         <v>46029</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23649,7 +23655,7 @@
         <v>46029.44930555556</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23706,7 +23712,7 @@
         <v>46029.44416666667</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23763,7 +23769,7 @@
         <v>46029</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23820,7 +23826,7 @@
         <v>46029.62356481481</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23877,7 +23883,7 @@
         <v>46029.43967592593</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23934,7 +23940,7 @@
         <v>46030.40472222222</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23991,7 +23997,7 @@
         <v>46030.39997685186</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24048,7 +24054,7 @@
         <v>46030.52076388889</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24110,7 +24116,7 @@
         <v>46030.44680555556</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24172,7 +24178,7 @@
         <v>46030.38206018518</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24234,7 +24240,7 @@
         <v>45198</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24291,7 +24297,7 @@
         <v>46030.45</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24353,7 +24359,7 @@
         <v>45538.65402777777</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24410,7 +24416,7 @@
         <v>45742.57288194444</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24467,7 +24473,7 @@
         <v>45742.57572916667</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24524,7 +24530,7 @@
         <v>45321.59253472222</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24581,7 +24587,7 @@
         <v>45735</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24638,7 +24644,7 @@
         <v>44531</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24695,7 +24701,7 @@
         <v>45362.51869212963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24752,7 +24758,7 @@
         <v>44930.48471064815</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24809,7 +24815,7 @@
         <v>45568.67050925926</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24866,7 +24872,7 @@
         <v>44930.48086805556</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24923,7 +24929,7 @@
         <v>44896</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24980,7 +24986,7 @@
         <v>44623.66270833334</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25037,7 +25043,7 @@
         <v>45727</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25094,7 +25100,7 @@
         <v>45205</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25151,7 +25157,7 @@
         <v>45489</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25208,7 +25214,7 @@
         <v>45105</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25265,7 +25271,7 @@
         <v>45105</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25322,7 +25328,7 @@
         <v>45373.46407407407</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25379,7 +25385,7 @@
         <v>44742</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25436,7 +25442,7 @@
         <v>45203.44675925926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25493,7 +25499,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25550,7 +25556,7 @@
         <v>44887.68068287037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25607,7 +25613,7 @@
         <v>45758.62086805556</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25669,7 +25675,7 @@
         <v>45727.86231481482</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25726,7 +25732,7 @@
         <v>45541.43700231481</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25783,7 +25789,7 @@
         <v>45541.43848379629</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25840,7 +25846,7 @@
         <v>44378</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25897,7 +25903,7 @@
         <v>45601</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25954,7 +25960,7 @@
         <v>44467</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26011,7 +26017,7 @@
         <v>45622</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26073,7 +26079,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26130,7 +26136,7 @@
         <v>44958.76020833333</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26187,7 +26193,7 @@
         <v>45574.720625</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26244,7 +26250,7 @@
         <v>45076.47388888889</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26301,7 +26307,7 @@
         <v>45076.47741898148</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26358,7 +26364,7 @@
         <v>44796</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26415,7 +26421,7 @@
         <v>45117.56052083334</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26477,7 +26483,7 @@
         <v>45078.736875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26534,7 +26540,7 @@
         <v>45210</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26591,7 +26597,7 @@
         <v>45774.44432870371</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26648,7 +26654,7 @@
         <v>45538.76355324074</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26705,7 +26711,7 @@
         <v>45184</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26762,7 +26768,7 @@
         <v>45541.43497685185</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26819,7 +26825,7 @@
         <v>45541.45583333333</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26876,7 +26882,7 @@
         <v>45541.47113425926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26933,7 +26939,7 @@
         <v>44953.42472222223</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26990,7 +26996,7 @@
         <v>45138.58577546296</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27047,7 +27053,7 @@
         <v>45076</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27104,7 +27110,7 @@
         <v>45765.43796296296</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27161,7 +27167,7 @@
         <v>45541.46586805556</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27218,7 +27224,7 @@
         <v>45541.4724074074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27275,7 +27281,7 @@
         <v>45076</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27332,7 +27338,7 @@
         <v>45316.6327662037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27389,7 +27395,7 @@
         <v>45686.50671296296</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27446,7 +27452,7 @@
         <v>45686.59657407407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27503,7 +27509,7 @@
         <v>45525</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27560,7 +27566,7 @@
         <v>45321.6490625</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27617,7 +27623,7 @@
         <v>45147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27674,7 +27680,7 @@
         <v>44810</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27736,7 +27742,7 @@
         <v>44946.56505787037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27793,7 +27799,7 @@
         <v>44438</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27850,7 +27856,7 @@
         <v>44593</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27907,7 +27913,7 @@
         <v>45267.36788194445</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27964,7 +27970,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28021,7 +28027,7 @@
         <v>45203.44438657408</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28078,7 +28084,7 @@
         <v>45310</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28135,7 +28141,7 @@
         <v>45121.35908564815</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28192,7 +28198,7 @@
         <v>44279.65511574074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28249,7 +28255,7 @@
         <v>44489</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28306,7 +28312,7 @@
         <v>45706</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28363,7 +28369,7 @@
         <v>45762.55292824074</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28420,7 +28426,7 @@
         <v>45564.54063657407</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28477,7 +28483,7 @@
         <v>45022</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28534,7 +28540,7 @@
         <v>45699</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28591,7 +28597,7 @@
         <v>45686.48164351852</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28648,7 +28654,7 @@
         <v>45643</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28705,7 +28711,7 @@
         <v>45797.4594212963</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28767,7 +28773,7 @@
         <v>45700.61596064815</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28824,7 +28830,7 @@
         <v>45804.44163194444</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28881,7 +28887,7 @@
         <v>45807.5277662037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28938,7 +28944,7 @@
         <v>45807.55731481482</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28995,7 +29001,7 @@
         <v>45807.52334490741</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29052,7 +29058,7 @@
         <v>45810.64702546296</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29109,7 +29115,7 @@
         <v>45544.57798611111</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29166,7 +29172,7 @@
         <v>45816.79953703703</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>

--- a/Översikt ÖSTRA GÖINGE.xlsx
+++ b/Översikt ÖSTRA GÖINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45856</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>46042.71582175926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>44897</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45275</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44918</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45332.73255787037</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>45541.46270833333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>45856</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45554.54538194444</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45846</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>44929.54778935185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45274</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45785</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>44327</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>44580.61922453704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>44820</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>45512.58193287037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>45887.69434027778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45082</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45918.29126157407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>45554.55802083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>45267</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44580</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44958</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>44327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44855.75388888889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>44274.31954861111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44315.56872685185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44557.56232638889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44557.62729166666</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44396</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44620</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44498.85872685185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44472.64002314815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44379.59642361111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44342.41119212963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44585.56385416666</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>44557.93648148148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>44588</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>44606</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44610.64776620371</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44746</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44557.95741898148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>44853.52287037037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>44277.75394675926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>44519.36152777778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>44379.59303240741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>44414</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>44602.57128472222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44594</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44466.61886574074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>44546.87743055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44575</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44627</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>44480.4962962963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44378</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>44557.92930555555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>44463.82530092593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>44557.95087962963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>44820</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>44598.91083333334</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44578.43423611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>44557.96420138889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44886.65877314815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>44887.7209375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44585.56642361111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>44467.4494675926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>44327.98402777778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44680.95025462963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44796.69704861111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44623.6662037037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44700</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44403</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44557</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>45227.51521990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>45069</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44810</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>45310</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45422.58119212963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45216.91013888889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>44438</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>45435.57190972222</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>45386.34684027778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>44859</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>45410</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44557.62873842593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>45229</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>45139</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44531</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44531</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>45271.67439814815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>45483.51128472222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>45527</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44981</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44887.68564814814</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44992</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44896.69921296297</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44896.7287037037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45278</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44845</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>44929</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45530</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>45362.51869212963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>44896</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>44557.95532407407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>45525</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>45544.57798611111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>45807.52334490741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>45030.5625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>45807.55731481482</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>45742.57288194444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>45742.57572916667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>45810.64702546296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>45846</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>45541.47113425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>45807.5277662037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>44910</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>45489</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>45638.34212962963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>45408.3866550926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>45856</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>44896.67655092593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>44949</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>45816.79953703703</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>45192</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>45615.36962962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>45408.37851851852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>45553.56228009259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>45568</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44887.68068287037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>45541.43497685185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>45541.45583333333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>45820.58746527778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>45820.65574074074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>45820</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>45820</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>45820</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>45541.6287962963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>45821.35623842593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>45896</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>45896</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44897</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>45826.69407407408</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>45827.48390046296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>45701.68670138889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>45562.64423611111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>45142</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44930.48471064815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>45831.79603009259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>45699.36305555556</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>45834.60393518519</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>45834.62658564815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>45834.581875</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>45834.59766203703</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>45835</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>44964</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>44489</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>45835.31512731482</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>45909.5709375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45819</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>44803</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>45638.3243287037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>45256.94847222222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>45909.58018518519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>45909.5822800926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>45909.58454861111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>45909.57569444444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>44958</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44946.56505787037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45846.4655324074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>45362</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>44958.74996527778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>44958.88269675926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>45845.37958333334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>45845.37525462963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>45076</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>45748</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>45848.43571759259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45667.43741898148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>45848.44622685185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45636.54423611111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45601</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45243</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45918.29686342592</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45918.30107638889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>45686.50671296296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>45728.6678587963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>45674.62034722222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>45922</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>45923.6546875</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>45923.65899305556</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>45146</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>45923.54709490741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>45727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>45147</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>45758.71329861111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>45147</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>45873.655625</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44368</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44739.92146990741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>45930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44896.71260416666</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45874.51923611111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>45022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>45880</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44368</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44826</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>45443.76629629629</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>45935</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>45935</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>45935</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>45239</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>45643.49228009259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>45203.43324074074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>45765.43305555556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44460</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44459</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>45686.59657407407</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>45198</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>45194</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>45751.59857638889</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>45539.44309027777</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>45939</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>45082</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>45268.90278935185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44918</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45939</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>45856</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45727</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>45069</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>45090.6815625</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44929</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>45541.45120370371</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>45541.4572800926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>45091.87535879629</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44531</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44914.38637731481</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>45376.48771990741</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>45105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>45316</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44937.61728009259</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>45958.66930555556</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>45015.69164351852</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45078.736875</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45622</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45574.720625</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45966.58768518519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44956.88331018519</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>45142.62859953703</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45267.36788194445</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>45645</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>45966.57887731482</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>45966.35921296296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>45327</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>45966.58150462963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>45966.58539351852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>45331.48893518518</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>45967.50263888889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45967.50083333333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>45029</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>45971.65943287037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>45209</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>45267.37601851852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>45538.65402777777</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>45970.69688657407</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>45972.77635416666</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>45428.43583333334</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>45972.77923611111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>45973.29362268518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45974.50208333333</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45972.77481481482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>45972.77200231481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45562.64549768518</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>45975.58877314815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>45085</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>45601.74481481482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>45337</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44981.74542824074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>45980.54207175926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>45980.54856481482</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>45980.4771412037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>45980</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44977</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>45139</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>45117.56052083334</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>44953.42472222223</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18899,7 +18899,7 @@
         <v>45138.58577546296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>45988.65027777778</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>44531</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>45636.53048611111</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>45337</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>45979.69326388889</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>45202</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45541.46586805556</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>45541.4724074074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>45965</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>45993</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19526,7 +19526,7 @@
         <v>45965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>45581.63439814815</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>45321.59253472222</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>45569.54984953703</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>45686.59799768519</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44623.66270833334</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>46041.40594907408</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>45076.47388888889</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>45076.47741898148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>45172.9414699074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>46042.58302083334</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>46042.58752314815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>46042.59202546296</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>46042.71452546296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>45751.41636574074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         <v>45117</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44326</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>45179.61063657407</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>45147</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>45194</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>45194</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>45758.62086805556</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45685.44765046296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45685.45268518518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45774.44432870371</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>46010.38516203704</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>46009</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44686.91196759259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44742</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44853</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>45198</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>45121.35908564815</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44840</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44315</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>46057.84518518519</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         <v>45266</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>45203.44675925926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>45274.58528935185</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>46058.62920138889</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>44915.39915509259</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>45733</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>45330.57633101852</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>45349.45274305555</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>45245.60819444444</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>45726</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44723.45247685185</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>45321</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>45310</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>45819</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>45076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44935.67930555555</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>45259</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44539</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>45273.56233796296</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>46069.6066087963</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>46029.61525462963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>46029</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>46029</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>46030.52076388889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>46030.38206018518</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>46030.39997685186</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44937</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>46030.44680555556</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>46030.45</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>46030.40472222222</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>46029.43967592593</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>46029.44706018519</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>46029.62356481481</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>45567.87409722222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>46029.44416666667</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>46029.44930555556</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44796</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45279</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>46034.52943287037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>46076.41229166667</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>44350.48686342593</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>46076.41903935185</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45267</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44519.36761574074</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44326</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>44606.62732638889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>46076</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44852</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>44593</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>45475</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>45246.40434027778</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>46029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44627</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44946.56618055556</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>45184</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>45316.6327662037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>45188.38028935185</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>45141.58101851852</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>45461.66430555555</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44602.54034722222</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>45541.43700231481</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>45541.43848379629</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45541.44021990741</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>45076</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>45568</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44873.32849537037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45147</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>45607</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>45180.59017361111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45758.61925925926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45758.62509259259</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>45076</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>45320.37907407407</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>45727.86231481482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>45210</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44279.65511574074</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>45146</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>45029</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44466.4562962963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>45541.43292824074</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>45327</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>45541.46791666667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>45735</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26478,7 +26478,7 @@
         <v>45405</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26535,7 +26535,7 @@
         <v>45568.67050925926</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>45254.62699074074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44378</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         <v>44977</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26763,7 +26763,7 @@
         <v>45021.46637731481</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         <v>44958</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26877,7 +26877,7 @@
         <v>44958.76020833333</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26934,7 +26934,7 @@
         <v>45674.69032407407</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26991,7 +26991,7 @@
         <v>44315.57037037037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45156.36318287037</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45243</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>45765.43796296296</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>45583</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         <v>45373.46407407407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         <v>45331.81311342592</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44742</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>45602.68267361111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>45728.66428240741</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>45321.6490625</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>45205</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>44326</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27737,7 +27737,7 @@
         <v>44593</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>45632.57564814815</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>45443.76803240741</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>45307</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>45574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28022,7 +28022,7 @@
         <v>45680</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28079,7 +28079,7 @@
         <v>44428</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28136,7 +28136,7 @@
         <v>44930.48086805556</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>45203.44438657408</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>45252</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>45727.46866898148</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>45562.64256944445</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28426,7 +28426,7 @@
         <v>45176.46850694445</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28483,7 +28483,7 @@
         <v>45635.43335648148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>45184</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28597,7 +28597,7 @@
         <v>45538.76355324074</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
         <v>45489</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28711,7 +28711,7 @@
         <v>45638.3119212963</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>45706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>45762.55292824074</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>45022</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>45564.54063657407</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>45699</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>45686.48164351852</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>45643</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>45700.61596064815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>45797.4594212963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45804.44163194444</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
